--- a/biology/Médecine/Daniel_Koch/Daniel_Koch.xlsx
+++ b/biology/Médecine/Daniel_Koch/Daniel_Koch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Koch, né le 13 avril 1955 à Bienne, est un médecin suisse. Directeur de 2008 à 2020 de la division « Maladies transmissibles » de l'Office fédéral de la santé publique (OFSP), il est impliqué à ce titre dans la gestion du début de la pandémie de Covid-19 en Suisse. Il prend sa retraite le 27 mai 2020[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Koch, né le 13 avril 1955 à Bienne, est un médecin suisse. Directeur de 2008 à 2020 de la division « Maladies transmissibles » de l'Office fédéral de la santé publique (OFSP), il est impliqué à ce titre dans la gestion du début de la pandémie de Covid-19 en Suisse. Il prend sa retraite le 27 mai 2020.
 </t>
         </is>
       </c>
@@ -513,16 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et études
-Né dans une famille de médecins et ayant grandi en Valais (à Viège et Brigue)[2], Daniel Koch perd ses deux parents à l'âge de 7 ans[3]. Il étudie la médecine à l'Université de Berne, puis travaille comme gynécologue assistant en Valais pendant plusieurs années[4].
-Comité international de la Croix-Rouge
-De 1988 à 2002, il est employé par le Comité international de la Croix-Rouge, d'abord en tant que coordinateur médical dans les zones de crise, notamment pendant la guerre civile au Sierra Leone, en Ouganda, en Afrique du Sud et au Pérou[5].
-À partir de 1997, il travaille ensuite comme assistant médical au siège du CICR à Genève, où il est responsable des programmes médicaux en Afrique. En 1996-97, il termine sa formation avec une maîtrise en santé publique de l’université Johns-Hopkins à Baltimore, aux États-Unis.
-Office fédéral de la santé publique
-Il est engagé en 2002 par l'Office fédéral de la santé publique (OFSP), où il est membre du groupe de travail contre l'épidémie de SRAS en 2002/2003 puis de celui chargé de la grippe aviaire H5N1[5]. Jusqu'en 2006, il dirige la section « Vaccinations », puis s'occupe de 2006 à 2008 de la section « Préparation à une pandémie », avant de devenir chef de la division « Maladies transmissibles », poste qu'il conserve jusqu'à sa retraite en 2020[6].
-Pandémie de Covid-19
-Daniel Koch devient connu en Suisse au printemps 2020 lorsqu'il apparaît à de nombreuses conférences de presse pour détailler l'action de l'OFSP face à la pandémie de Covid-19[4]. Sa présence à la majorité des conférences de presse sur le sujet à partir du mois de février, largement relayée dans les médias, ainsi que son style calme et rassurant suscitent l'approbation[2],[7].
-Bien que devant partir à la retraite au mois d'avril 2020, il quitte son poste de chef de division des maladies transmissibles à l'OFSP pour devenir délégué pour le Covid-19 pour la durée de l'épidémie[8]. Il prend finalement sa retraite à la fin mai 2020, se déclarant « content que la situation en Suisse soit bonne, beaucoup mieux qu'espéré »[9].
+          <t>Enfance et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né dans une famille de médecins et ayant grandi en Valais (à Viège et Brigue), Daniel Koch perd ses deux parents à l'âge de 7 ans. Il étudie la médecine à l'Université de Berne, puis travaille comme gynécologue assistant en Valais pendant plusieurs années.
 </t>
         </is>
       </c>
@@ -548,13 +557,132 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Comité international de la Croix-Rouge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1988 à 2002, il est employé par le Comité international de la Croix-Rouge, d'abord en tant que coordinateur médical dans les zones de crise, notamment pendant la guerre civile au Sierra Leone, en Ouganda, en Afrique du Sud et au Pérou.
+À partir de 1997, il travaille ensuite comme assistant médical au siège du CICR à Genève, où il est responsable des programmes médicaux en Afrique. En 1996-97, il termine sa formation avec une maîtrise en santé publique de l’université Johns-Hopkins à Baltimore, aux États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daniel_Koch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Koch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Office fédéral de la santé publique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est engagé en 2002 par l'Office fédéral de la santé publique (OFSP), où il est membre du groupe de travail contre l'épidémie de SRAS en 2002/2003 puis de celui chargé de la grippe aviaire H5N1. Jusqu'en 2006, il dirige la section « Vaccinations », puis s'occupe de 2006 à 2008 de la section « Préparation à une pandémie », avant de devenir chef de la division « Maladies transmissibles », poste qu'il conserve jusqu'à sa retraite en 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daniel_Koch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Koch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Office fédéral de la santé publique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pandémie de Covid-19</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Koch devient connu en Suisse au printemps 2020 lorsqu'il apparaît à de nombreuses conférences de presse pour détailler l'action de l'OFSP face à la pandémie de Covid-19. Sa présence à la majorité des conférences de presse sur le sujet à partir du mois de février, largement relayée dans les médias, ainsi que son style calme et rassurant suscitent l'approbation,.
+Bien que devant partir à la retraite au mois d'avril 2020, il quitte son poste de chef de division des maladies transmissibles à l'OFSP pour devenir délégué pour le Covid-19 pour la durée de l'épidémie. Il prend finalement sa retraite à la fin mai 2020, se déclarant « content que la situation en Suisse soit bonne, beaucoup mieux qu'espéré ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daniel_Koch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Koch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Vie privée et autres engagements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Koch habite à Schwarzenburg, est divorcé et a deux filles (adultes). En plus de son implication dans le secteur de la santé, il travaille également pour la protection des animaux à la Fondation Certodog[10], et a remporté un titre européen de canicross en 2019[2].
-Depuis juin 2020, il s’engage avec la Société suisse de sauvetage (SSS) pour la prévention des noyades. La SSS se prépare à faire face à une augmentation du risque de noyades à la suite d'une augmentation des baignades en eaux libres à cause de la pandémie ; Daniel Koch, qui a l'habitude de se baigner dans l'Aar, accompagne le projet "Covid-Eté 2020". il s'adresse à la population dans une lettre avec les nageurs sauveteurs[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Koch habite à Schwarzenburg, est divorcé et a deux filles (adultes). En plus de son implication dans le secteur de la santé, il travaille également pour la protection des animaux à la Fondation Certodog, et a remporté un titre européen de canicross en 2019.
+Depuis juin 2020, il s’engage avec la Société suisse de sauvetage (SSS) pour la prévention des noyades. La SSS se prépare à faire face à une augmentation du risque de noyades à la suite d'une augmentation des baignades en eaux libres à cause de la pandémie ; Daniel Koch, qui a l'habitude de se baigner dans l'Aar, accompagne le projet "Covid-Eté 2020". il s'adresse à la population dans une lettre avec les nageurs sauveteurs.
 </t>
         </is>
       </c>
